--- a/example/empty.xlsx
+++ b/example/empty.xlsx
@@ -1,26 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\xls2lua\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\jiangzhuohao_DESKTOP-5ONOMSB_mainline_6540\tools\xls-exporter\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9EF909-E021-4A76-8F9C-94307C79490D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39E29E8-4F83-478E-A9BB-02AA22799E9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1304,7 +1308,7 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="A1:XFD1048576"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.15"/>
